--- a/采购单规范v0.2/采购详单.xlsx
+++ b/采购单规范v0.2/采购详单.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator.PC-201510231423\Documents\GitHub\About_Money\采购单规范v0.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\阳\Documents\GitHub\creative_about_money\采购单规范v0.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3848" uniqueCount="946">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3884" uniqueCount="970">
   <si>
     <t>编号</t>
   </si>
@@ -3765,6 +3765,102 @@
   </si>
   <si>
     <t>温泉</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>欧阳</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>个</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>有</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>未上报</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>创意组</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>LM2596S-adj</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>1N5822 SMB</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>个</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>未上报</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>创意组</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>法拉电容 2.7V 1F</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>份</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>有</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>未上报</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>创意组</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴片CDRH127-47uH</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>件</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>KBL406整流桥堆</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>件</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>欧阳</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>电路板</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>片</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>未上报</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>创意组</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
@@ -4117,101 +4213,7 @@
     <cellStyle name="常规 7" xfId="8"/>
     <cellStyle name="超链接" xfId="3" builtinId="8"/>
   </cellStyles>
-  <dxfs count="34">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="15">
     <dxf>
       <fill>
         <patternFill>
@@ -4307,48 +4309,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -4373,8 +4333,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="33"/>
-      <tableStyleElement type="headerRow" dxfId="32"/>
+      <tableStyleElement type="wholeTable" dxfId="14"/>
+      <tableStyleElement type="headerRow" dxfId="13"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -4722,11 +4682,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S726"/>
+  <dimension ref="A1:S729"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A712" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N723" sqref="A719:N723"/>
+      <selection pane="bottomLeft" activeCell="D728" sqref="D728"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4844,7 +4804,7 @@
       </c>
       <c r="Q2">
         <f>SUM(K:K)</f>
-        <v>62933.88</v>
+        <v>63119.57</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
@@ -36392,18 +36352,268 @@
       </c>
     </row>
     <row r="724" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B724" s="42"/>
-      <c r="L724" s="6"/>
-      <c r="M724" s="42"/>
-      <c r="N724" s="42"/>
+      <c r="A724" s="1">
+        <v>723</v>
+      </c>
+      <c r="B724" s="42" t="s">
+        <v>965</v>
+      </c>
+      <c r="C724" s="39">
+        <v>42434</v>
+      </c>
+      <c r="D724" s="6" t="s">
+        <v>966</v>
+      </c>
+      <c r="E724" s="1">
+        <v>4</v>
+      </c>
+      <c r="F724" s="6" t="s">
+        <v>967</v>
+      </c>
+      <c r="G724" s="1">
+        <v>20</v>
+      </c>
+      <c r="H724" s="1">
+        <v>10</v>
+      </c>
+      <c r="I724" s="1">
+        <v>6</v>
+      </c>
+      <c r="J724" s="1">
+        <v>0</v>
+      </c>
+      <c r="K724" s="1">
+        <v>96</v>
+      </c>
+      <c r="L724" s="6" t="s">
+        <v>958</v>
+      </c>
+      <c r="M724" s="42" t="s">
+        <v>968</v>
+      </c>
+      <c r="N724" s="42" t="s">
+        <v>969</v>
+      </c>
     </row>
     <row r="725" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="L725" s="6"/>
-      <c r="M725" s="42"/>
-      <c r="N725" s="42"/>
+      <c r="A725" s="1">
+        <v>724</v>
+      </c>
+      <c r="B725" s="42" t="s">
+        <v>946</v>
+      </c>
+      <c r="C725" s="39">
+        <v>42437</v>
+      </c>
+      <c r="D725" s="6" t="s">
+        <v>951</v>
+      </c>
+      <c r="E725" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="F725" s="6" t="s">
+        <v>947</v>
+      </c>
+      <c r="G725" s="1">
+        <v>20</v>
+      </c>
+      <c r="H725" s="1">
+        <v>0</v>
+      </c>
+      <c r="I725" s="1">
+        <v>0</v>
+      </c>
+      <c r="J725" s="1">
+        <v>0</v>
+      </c>
+      <c r="K725" s="1">
+        <v>30</v>
+      </c>
+      <c r="L725" s="6" t="s">
+        <v>948</v>
+      </c>
+      <c r="M725" s="42" t="s">
+        <v>949</v>
+      </c>
+      <c r="N725" s="42" t="s">
+        <v>950</v>
+      </c>
     </row>
     <row r="726" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="N726" s="42"/>
+      <c r="A726" s="1">
+        <v>725</v>
+      </c>
+      <c r="B726" s="42" t="s">
+        <v>946</v>
+      </c>
+      <c r="C726" s="39">
+        <v>42437</v>
+      </c>
+      <c r="D726" s="6" t="s">
+        <v>952</v>
+      </c>
+      <c r="E726" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="F726" s="6" t="s">
+        <v>953</v>
+      </c>
+      <c r="G726" s="1">
+        <v>20</v>
+      </c>
+      <c r="H726" s="1">
+        <v>0</v>
+      </c>
+      <c r="I726" s="1">
+        <v>0</v>
+      </c>
+      <c r="J726" s="1">
+        <v>0</v>
+      </c>
+      <c r="K726" s="1">
+        <v>9.6</v>
+      </c>
+      <c r="L726" s="6" t="s">
+        <v>948</v>
+      </c>
+      <c r="M726" s="42" t="s">
+        <v>954</v>
+      </c>
+      <c r="N726" s="42" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="727" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A727" s="1">
+        <v>726</v>
+      </c>
+      <c r="B727" s="42" t="s">
+        <v>946</v>
+      </c>
+      <c r="C727" s="39">
+        <v>42437</v>
+      </c>
+      <c r="D727" s="6" t="s">
+        <v>956</v>
+      </c>
+      <c r="E727" s="1">
+        <v>9.9</v>
+      </c>
+      <c r="F727" s="6" t="s">
+        <v>957</v>
+      </c>
+      <c r="G727" s="1">
+        <v>2</v>
+      </c>
+      <c r="H727" s="1">
+        <v>0</v>
+      </c>
+      <c r="I727" s="1">
+        <v>0</v>
+      </c>
+      <c r="J727" s="1">
+        <v>0</v>
+      </c>
+      <c r="K727" s="1">
+        <v>19.8</v>
+      </c>
+      <c r="L727" s="6" t="s">
+        <v>958</v>
+      </c>
+      <c r="M727" s="42" t="s">
+        <v>959</v>
+      </c>
+      <c r="N727" s="42" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="728" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A728" s="1">
+        <v>727</v>
+      </c>
+      <c r="B728" s="42" t="s">
+        <v>946</v>
+      </c>
+      <c r="C728" s="39">
+        <v>42437</v>
+      </c>
+      <c r="D728" s="6" t="s">
+        <v>961</v>
+      </c>
+      <c r="E728" s="1">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="F728" s="6" t="s">
+        <v>962</v>
+      </c>
+      <c r="G728" s="1">
+        <v>20</v>
+      </c>
+      <c r="H728" s="1">
+        <v>0</v>
+      </c>
+      <c r="I728" s="1">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="J728" s="1">
+        <v>0</v>
+      </c>
+      <c r="K728" s="1">
+        <v>19.3</v>
+      </c>
+      <c r="L728" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="M728" s="42" t="s">
+        <v>522</v>
+      </c>
+      <c r="N728" s="42" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="729" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A729" s="1">
+        <v>728</v>
+      </c>
+      <c r="B729" s="42" t="s">
+        <v>946</v>
+      </c>
+      <c r="C729" s="39">
+        <v>42437</v>
+      </c>
+      <c r="D729" s="6" t="s">
+        <v>963</v>
+      </c>
+      <c r="E729" s="1">
+        <v>1.0669999999999999</v>
+      </c>
+      <c r="F729" s="6" t="s">
+        <v>964</v>
+      </c>
+      <c r="G729" s="1">
+        <v>10</v>
+      </c>
+      <c r="H729" s="1">
+        <v>0</v>
+      </c>
+      <c r="I729" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="J729" s="1">
+        <v>0</v>
+      </c>
+      <c r="K729" s="1">
+        <v>10.99</v>
+      </c>
+      <c r="L729" s="6" t="s">
+        <v>958</v>
+      </c>
+      <c r="M729" s="42" t="s">
+        <v>959</v>
+      </c>
+      <c r="N729" s="42" t="s">
+        <v>960</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:R567">
@@ -36427,53 +36637,23 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B368 B556 B377:B554 B558:B614 B671:B1048576">
-    <cfRule type="cellIs" dxfId="31" priority="32" operator="equal">
+  <conditionalFormatting sqref="B555 B557">
+    <cfRule type="cellIs" dxfId="12" priority="25" operator="equal">
       <formula>$B$431</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="26" operator="equal">
       <formula>$B$174</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="27" operator="equal">
       <formula>$B$11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="28" operator="equal">
       <formula>$B$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="29" operator="equal">
       <formula>$B$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="37" operator="equal">
-      <formula>$B$101</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="38">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B557 B555">
-    <cfRule type="cellIs" dxfId="25" priority="25" operator="equal">
-      <formula>$B$431</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="26" operator="equal">
-      <formula>$B$174</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="27" operator="equal">
-      <formula>$B$11</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="28" operator="equal">
-      <formula>$B$10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="29" operator="equal">
-      <formula>$B$4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="30" operator="equal">
       <formula>$B$101</formula>
     </cfRule>
     <cfRule type="colorScale" priority="31">
@@ -36488,58 +36668,28 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="19" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="24"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B615:B670">
-    <cfRule type="cellIs" dxfId="18" priority="17" operator="equal">
+  <conditionalFormatting sqref="B1:B368 B556 B377:B554 B558:B614 B731:B1048576 B671:B729">
+    <cfRule type="cellIs" dxfId="5" priority="49" operator="equal">
       <formula>$B$431</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="50" operator="equal">
       <formula>$B$174</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="51" operator="equal">
       <formula>$B$11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="52" operator="equal">
       <formula>$B$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="53" operator="equal">
       <formula>$B$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="54" operator="equal">
       <formula>$B$101</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="23">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B369:B376">
-    <cfRule type="cellIs" dxfId="12" priority="10" operator="equal">
-      <formula>$B$431</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
-      <formula>$B$174</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
-      <formula>$B$11</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="13" operator="equal">
-      <formula>$B$10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="14" operator="equal">
-      <formula>$B$4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="15" operator="equal">
-      <formula>$B$101</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="16">
+    <cfRule type="colorScale" priority="55">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>

--- a/采购单规范v0.2/采购详单.xlsx
+++ b/采购单规范v0.2/采购详单.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\阳\Documents\GitHub\creative_about_money\采购单规范v0.2\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="11430" yWindow="0" windowWidth="15975" windowHeight="8970"/>
   </bookViews>
@@ -19,12 +14,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$R$567</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3884" uniqueCount="970">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3890" uniqueCount="973">
   <si>
     <t>编号</t>
   </si>
@@ -3863,11 +3858,23 @@
     <t>创意组</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
+  <si>
+    <t>杨森</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>万向球</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>个</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4213,7 +4220,49 @@
     <cellStyle name="常规 7" xfId="8"/>
     <cellStyle name="超链接" xfId="3" builtinId="8"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="21">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -4333,8 +4382,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="14"/>
-      <tableStyleElement type="headerRow" dxfId="13"/>
+      <tableStyleElement type="wholeTable" dxfId="20"/>
+      <tableStyleElement type="headerRow" dxfId="19"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -4682,11 +4731,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S729"/>
+  <dimension ref="A1:S730"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A712" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D728" sqref="D728"/>
+      <pane ySplit="1" topLeftCell="A709" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L731" sqref="L731"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4804,7 +4853,7 @@
       </c>
       <c r="Q2">
         <f>SUM(K:K)</f>
-        <v>63119.57</v>
+        <v>63219.57</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
@@ -36606,13 +36655,57 @@
         <v>10.99</v>
       </c>
       <c r="L729" s="6" t="s">
-        <v>958</v>
+        <v>479</v>
       </c>
       <c r="M729" s="42" t="s">
         <v>959</v>
       </c>
       <c r="N729" s="42" t="s">
         <v>960</v>
+      </c>
+    </row>
+    <row r="730" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A730" s="1">
+        <v>729</v>
+      </c>
+      <c r="B730" s="42" t="s">
+        <v>970</v>
+      </c>
+      <c r="C730" s="39">
+        <v>42351</v>
+      </c>
+      <c r="D730" s="6" t="s">
+        <v>971</v>
+      </c>
+      <c r="E730" s="1">
+        <v>16.18</v>
+      </c>
+      <c r="F730" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="G730" s="1">
+        <v>6</v>
+      </c>
+      <c r="H730" s="1">
+        <v>0</v>
+      </c>
+      <c r="I730" s="1">
+        <v>2.91</v>
+      </c>
+      <c r="J730" s="1">
+        <v>0</v>
+      </c>
+      <c r="K730" s="1">
+        <v>100</v>
+      </c>
+      <c r="L730" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="M730" s="42" t="s">
+        <v>522</v>
+      </c>
+      <c r="N730" s="42" t="s">
+        <v>476</v>
       </c>
     </row>
   </sheetData>
@@ -36637,23 +36730,23 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B555 B557">
-    <cfRule type="cellIs" dxfId="12" priority="25" operator="equal">
+  <conditionalFormatting sqref="B557 B555">
+    <cfRule type="cellIs" dxfId="18" priority="25" operator="equal">
       <formula>$B$431</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="26" operator="equal">
       <formula>$B$174</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="27" operator="equal">
       <formula>$B$11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="28" operator="equal">
       <formula>$B$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="29" operator="equal">
       <formula>$B$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="30" operator="equal">
       <formula>$B$101</formula>
     </cfRule>
     <cfRule type="colorScale" priority="31">
@@ -36668,25 +36761,25 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="6" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="24"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B368 B556 B377:B554 B558:B614 B731:B1048576 B671:B729">
-    <cfRule type="cellIs" dxfId="5" priority="49" operator="equal">
+  <conditionalFormatting sqref="B1:B368 B556 B377:B554 B558:B614 B671:B1048576">
+    <cfRule type="cellIs" dxfId="11" priority="49" operator="equal">
       <formula>$B$431</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="50" operator="equal">
       <formula>$B$174</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="51" operator="equal">
       <formula>$B$11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="52" operator="equal">
       <formula>$B$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="53" operator="equal">
       <formula>$B$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="54" operator="equal">
       <formula>$B$101</formula>
     </cfRule>
     <cfRule type="colorScale" priority="55">

--- a/采购单规范v0.2/采购详单.xlsx
+++ b/采购单规范v0.2/采购详单.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3890" uniqueCount="973">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3932" uniqueCount="984">
   <si>
     <t>编号</t>
   </si>
@@ -3868,6 +3868,50 @@
   </si>
   <si>
     <t>个</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>金属传感器</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>个</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>出租车费</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>恒压簧</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>调压电源STG-500W</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>台</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>螺丝螺母</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>批</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>脚轮</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>只</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>螺丝</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
@@ -4220,49 +4264,7 @@
     <cellStyle name="常规 7" xfId="8"/>
     <cellStyle name="超链接" xfId="3" builtinId="8"/>
   </cellStyles>
-  <dxfs count="21">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="15">
     <dxf>
       <fill>
         <patternFill>
@@ -4382,8 +4384,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="20"/>
-      <tableStyleElement type="headerRow" dxfId="19"/>
+      <tableStyleElement type="wholeTable" dxfId="14"/>
+      <tableStyleElement type="headerRow" dxfId="13"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -4731,11 +4733,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S730"/>
+  <dimension ref="A1:S739"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A709" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L731" sqref="L731"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A718" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P737" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4853,7 +4855,7 @@
       </c>
       <c r="Q2">
         <f>SUM(K:K)</f>
-        <v>63219.57</v>
+        <v>63920.69</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
@@ -36707,6 +36709,332 @@
       <c r="N730" s="42" t="s">
         <v>476</v>
       </c>
+    </row>
+    <row r="731" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A731" s="1">
+        <v>730</v>
+      </c>
+      <c r="B731" s="42" t="s">
+        <v>970</v>
+      </c>
+      <c r="C731" s="39">
+        <v>42374</v>
+      </c>
+      <c r="D731" s="6" t="s">
+        <v>973</v>
+      </c>
+      <c r="E731">
+        <v>108.73</v>
+      </c>
+      <c r="F731" s="6" t="s">
+        <v>974</v>
+      </c>
+      <c r="G731" s="1">
+        <v>1</v>
+      </c>
+      <c r="H731" s="1">
+        <v>0</v>
+      </c>
+      <c r="I731" s="1">
+        <v>3.26</v>
+      </c>
+      <c r="J731" s="1">
+        <v>0</v>
+      </c>
+      <c r="K731" s="1">
+        <v>112</v>
+      </c>
+      <c r="L731" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="M731" s="42" t="s">
+        <v>522</v>
+      </c>
+      <c r="N731" s="42" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="732" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A732" s="1">
+        <v>731</v>
+      </c>
+      <c r="B732" s="42" t="s">
+        <v>970</v>
+      </c>
+      <c r="C732" s="39">
+        <v>42157</v>
+      </c>
+      <c r="D732" s="6" t="s">
+        <v>975</v>
+      </c>
+      <c r="E732">
+        <v>93</v>
+      </c>
+      <c r="F732" s="6" t="s">
+        <v>974</v>
+      </c>
+      <c r="G732" s="1">
+        <v>1</v>
+      </c>
+      <c r="H732" s="1">
+        <v>0</v>
+      </c>
+      <c r="I732" s="1">
+        <v>0</v>
+      </c>
+      <c r="J732" s="1">
+        <v>0</v>
+      </c>
+      <c r="K732" s="1">
+        <v>93</v>
+      </c>
+      <c r="L732" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="M732" s="42" t="s">
+        <v>522</v>
+      </c>
+      <c r="N732" s="42" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="733" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A733" s="1">
+        <v>732</v>
+      </c>
+      <c r="B733" s="42" t="s">
+        <v>970</v>
+      </c>
+      <c r="C733" s="39">
+        <v>42440</v>
+      </c>
+      <c r="D733" s="6" t="s">
+        <v>976</v>
+      </c>
+      <c r="E733">
+        <v>3.33</v>
+      </c>
+      <c r="F733" s="6" t="s">
+        <v>974</v>
+      </c>
+      <c r="G733" s="1">
+        <v>30</v>
+      </c>
+      <c r="H733" s="1">
+        <v>0</v>
+      </c>
+      <c r="I733" s="1">
+        <v>0</v>
+      </c>
+      <c r="J733" s="1">
+        <v>0</v>
+      </c>
+      <c r="K733" s="1">
+        <v>100</v>
+      </c>
+      <c r="L733" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="M733" s="42" t="s">
+        <v>522</v>
+      </c>
+      <c r="N733" s="42" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="734" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A734" s="1">
+        <v>733</v>
+      </c>
+      <c r="B734" s="42" t="s">
+        <v>970</v>
+      </c>
+      <c r="C734" s="39">
+        <v>42430</v>
+      </c>
+      <c r="D734" s="6" t="s">
+        <v>977</v>
+      </c>
+      <c r="E734">
+        <v>185</v>
+      </c>
+      <c r="F734" s="6" t="s">
+        <v>978</v>
+      </c>
+      <c r="G734" s="1">
+        <v>1</v>
+      </c>
+      <c r="H734" s="1">
+        <v>0</v>
+      </c>
+      <c r="I734" s="1">
+        <v>0</v>
+      </c>
+      <c r="J734" s="1">
+        <v>0</v>
+      </c>
+      <c r="K734" s="1">
+        <v>185</v>
+      </c>
+      <c r="L734" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="M734" s="42" t="s">
+        <v>522</v>
+      </c>
+      <c r="N734" s="42" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="735" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A735" s="1">
+        <v>734</v>
+      </c>
+      <c r="B735" s="42" t="s">
+        <v>970</v>
+      </c>
+      <c r="C735" s="39">
+        <v>42433</v>
+      </c>
+      <c r="D735" s="6" t="s">
+        <v>979</v>
+      </c>
+      <c r="E735" s="6">
+        <v>100</v>
+      </c>
+      <c r="F735" s="6" t="s">
+        <v>980</v>
+      </c>
+      <c r="G735" s="1">
+        <v>1</v>
+      </c>
+      <c r="H735" s="1">
+        <v>0</v>
+      </c>
+      <c r="I735" s="1">
+        <v>0</v>
+      </c>
+      <c r="J735" s="1">
+        <v>0</v>
+      </c>
+      <c r="K735" s="1">
+        <v>100</v>
+      </c>
+      <c r="L735" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="M735" s="42" t="s">
+        <v>522</v>
+      </c>
+      <c r="N735" s="42" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="736" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A736" s="1">
+        <v>735</v>
+      </c>
+      <c r="B736" s="42" t="s">
+        <v>970</v>
+      </c>
+      <c r="C736" s="39">
+        <v>42433</v>
+      </c>
+      <c r="D736" s="6" t="s">
+        <v>981</v>
+      </c>
+      <c r="E736" s="6">
+        <v>3.1</v>
+      </c>
+      <c r="F736" s="6" t="s">
+        <v>982</v>
+      </c>
+      <c r="G736" s="1">
+        <v>5</v>
+      </c>
+      <c r="H736" s="1">
+        <v>0</v>
+      </c>
+      <c r="I736" s="1">
+        <v>0.47</v>
+      </c>
+      <c r="J736" s="1">
+        <v>0</v>
+      </c>
+      <c r="K736" s="1">
+        <v>16</v>
+      </c>
+      <c r="L736" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="M736" s="42" t="s">
+        <v>522</v>
+      </c>
+      <c r="N736" s="42" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="737" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A737" s="1">
+        <v>736</v>
+      </c>
+      <c r="B737" s="42" t="s">
+        <v>970</v>
+      </c>
+      <c r="C737" s="39">
+        <v>42440</v>
+      </c>
+      <c r="D737" s="6" t="s">
+        <v>983</v>
+      </c>
+      <c r="E737" s="6">
+        <v>92.35</v>
+      </c>
+      <c r="F737" s="6" t="s">
+        <v>980</v>
+      </c>
+      <c r="G737" s="1">
+        <v>1</v>
+      </c>
+      <c r="H737" s="1">
+        <v>0</v>
+      </c>
+      <c r="I737" s="1">
+        <v>2.77</v>
+      </c>
+      <c r="J737" s="1">
+        <v>0</v>
+      </c>
+      <c r="K737" s="1">
+        <v>95.12</v>
+      </c>
+      <c r="L737" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="M737" s="42" t="s">
+        <v>522</v>
+      </c>
+      <c r="N737" s="42" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="738" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A738" s="1">
+        <v>737</v>
+      </c>
+      <c r="B738" s="42"/>
+      <c r="L738" s="6"/>
+      <c r="M738" s="42"/>
+      <c r="N738" s="42"/>
+    </row>
+    <row r="739" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A739" s="1">
+        <v>738</v>
+      </c>
+      <c r="B739" s="42"/>
+      <c r="L739" s="6"/>
+      <c r="M739" s="42"/>
+      <c r="N739" s="42"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:R567">
@@ -36731,22 +37059,22 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B557 B555">
-    <cfRule type="cellIs" dxfId="18" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="25" operator="equal">
       <formula>$B$431</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="26" operator="equal">
       <formula>$B$174</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="27" operator="equal">
       <formula>$B$11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="28" operator="equal">
       <formula>$B$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="29" operator="equal">
       <formula>$B$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="30" operator="equal">
       <formula>$B$101</formula>
     </cfRule>
     <cfRule type="colorScale" priority="31">
@@ -36761,25 +37089,25 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="12" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B368 B556 B377:B554 B558:B614 B671:B1048576">
-    <cfRule type="cellIs" dxfId="11" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="49" operator="equal">
       <formula>$B$431</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="50" operator="equal">
       <formula>$B$174</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="51" operator="equal">
       <formula>$B$11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="52" operator="equal">
       <formula>$B$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="53" operator="equal">
       <formula>$B$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="54" operator="equal">
       <formula>$B$101</formula>
     </cfRule>
     <cfRule type="colorScale" priority="55">

--- a/采购单规范v0.2/采购详单.xlsx
+++ b/采购单规范v0.2/采购详单.xlsx
@@ -4735,9 +4735,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S739"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A718" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P737" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="K733" sqref="A1:S739"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4855,7 +4855,7 @@
       </c>
       <c r="Q2">
         <f>SUM(K:K)</f>
-        <v>63920.69</v>
+        <v>63920.590000000004</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
@@ -36830,7 +36830,7 @@
         <v>0</v>
       </c>
       <c r="K733" s="1">
-        <v>100</v>
+        <v>99.9</v>
       </c>
       <c r="L733" s="6" t="s">
         <v>479</v>
@@ -37058,7 +37058,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B557 B555">
+  <conditionalFormatting sqref="B555 B557">
     <cfRule type="cellIs" dxfId="12" priority="25" operator="equal">
       <formula>$B$431</formula>
     </cfRule>
